--- a/GATEWAY/S1#111#OLLYSOFTXX/OLLYSOFT/OLLYMED/1.0/accreditamento-checklist_V8.2.5.xlsx
+++ b/GATEWAY/S1#111#OLLYSOFTXX/OLLYSOFT/OLLYMED/1.0/accreditamento-checklist_V8.2.5.xlsx
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$192</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="447">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2201,7 +2200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2321,28 +2320,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2361,11 +2338,58 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3813,10 +3837,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I187" sqref="I187"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3825,7 +3849,7 @@
     <col min="2" max="2" width="46.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="63.85546875" customWidth="1"/>
-    <col min="5" max="5" width="195.28515625" style="57" customWidth="1"/>
+    <col min="5" max="5" width="195.28515625" style="45" customWidth="1"/>
     <col min="6" max="6" width="33.140625" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
     <col min="8" max="8" width="64.42578125" customWidth="1"/>
@@ -3868,16 +3892,16 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="72" t="s">
         <v>441</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -3897,16 +3921,16 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="52" t="s">
         <v>444</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="63"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -3926,14 +3950,14 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="56" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="52" t="s">
         <v>442</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="63"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -3953,14 +3977,14 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="63"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -3980,8 +4004,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4058,7 +4082,7 @@
       <c r="D9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="46" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="20" t="s">
@@ -4203,17 +4227,17 @@
       <c r="D12" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="42"/>
-      <c r="J12" s="60" t="s">
+      <c r="J12" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="K12" s="60" t="s">
+      <c r="K12" s="48" t="s">
         <v>437</v>
       </c>
       <c r="L12" s="38"/>
@@ -4503,17 +4527,17 @@
       <c r="D20" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="47" t="s">
         <v>55</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="60" t="s">
+      <c r="J20" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="K20" s="60" t="s">
+      <c r="K20" s="48" t="s">
         <v>437</v>
       </c>
       <c r="L20" s="38"/>
@@ -4792,54 +4816,58 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="97.5" customHeight="1" thickBot="1">
-      <c r="A28" s="35">
+    <row r="28" spans="1:23" s="71" customFormat="1" ht="97.5" customHeight="1" thickBot="1">
+      <c r="A28" s="64">
         <v>45</v>
       </c>
-      <c r="B28" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="41" t="s">
+      <c r="B28" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="38" t="s">
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="60" t="s">
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="N28" s="60" t="s">
+      <c r="N28" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="O28" s="60" t="s">
+      <c r="O28" s="48" t="s">
         <v>438</v>
       </c>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="60" t="s">
+      <c r="P28" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="S28" s="60" t="s">
+      <c r="Q28" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="R28" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="S28" s="48" t="s">
         <v>439</v>
       </c>
-      <c r="T28" s="38"/>
-      <c r="U28" s="39" t="s">
+      <c r="T28" s="48"/>
+      <c r="U28" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="V28" s="40"/>
-      <c r="W28" s="38" t="s">
+      <c r="V28" s="70"/>
+      <c r="W28" s="48" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5423,17 +5451,17 @@
       <c r="D44" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="59" t="s">
+      <c r="E44" s="47" t="s">
         <v>298</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
       <c r="H44" s="37"/>
       <c r="I44" s="42"/>
-      <c r="J44" s="60" t="s">
+      <c r="J44" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="K44" s="60" t="s">
+      <c r="K44" s="48" t="s">
         <v>437</v>
       </c>
       <c r="L44" s="38"/>
@@ -5464,17 +5492,17 @@
       <c r="D45" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="59" t="s">
+      <c r="E45" s="47" t="s">
         <v>299</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
       <c r="H45" s="37"/>
       <c r="I45" s="42"/>
-      <c r="J45" s="60" t="s">
+      <c r="J45" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="K45" s="60" t="s">
+      <c r="K45" s="48" t="s">
         <v>437</v>
       </c>
       <c r="L45" s="38"/>
@@ -5505,17 +5533,17 @@
       <c r="D46" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="59" t="s">
+      <c r="E46" s="47" t="s">
         <v>300</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
       <c r="H46" s="37"/>
       <c r="I46" s="42"/>
-      <c r="J46" s="60" t="s">
+      <c r="J46" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="K46" s="60" t="s">
+      <c r="K46" s="48" t="s">
         <v>437</v>
       </c>
       <c r="L46" s="38"/>
@@ -5546,17 +5574,17 @@
       <c r="D47" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="59" t="s">
+      <c r="E47" s="47" t="s">
         <v>301</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
       <c r="H47" s="37"/>
       <c r="I47" s="42"/>
-      <c r="J47" s="60" t="s">
+      <c r="J47" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="K47" s="60" t="s">
+      <c r="K47" s="48" t="s">
         <v>437</v>
       </c>
       <c r="L47" s="38"/>
@@ -5587,17 +5615,17 @@
       <c r="D48" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E48" s="59" t="s">
+      <c r="E48" s="47" t="s">
         <v>302</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
       <c r="H48" s="37"/>
       <c r="I48" s="42"/>
-      <c r="J48" s="60" t="s">
+      <c r="J48" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="K48" s="60" t="s">
+      <c r="K48" s="48" t="s">
         <v>437</v>
       </c>
       <c r="L48" s="38"/>
@@ -5628,17 +5656,17 @@
       <c r="D49" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="E49" s="59" t="s">
+      <c r="E49" s="47" t="s">
         <v>303</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
       <c r="H49" s="37"/>
       <c r="I49" s="42"/>
-      <c r="J49" s="60" t="s">
+      <c r="J49" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="K49" s="60" t="s">
+      <c r="K49" s="48" t="s">
         <v>437</v>
       </c>
       <c r="L49" s="38"/>
@@ -5669,17 +5697,17 @@
       <c r="D50" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="59" t="s">
+      <c r="E50" s="47" t="s">
         <v>304</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
       <c r="H50" s="37"/>
       <c r="I50" s="42"/>
-      <c r="J50" s="60" t="s">
+      <c r="J50" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="K50" s="60" t="s">
+      <c r="K50" s="48" t="s">
         <v>437</v>
       </c>
       <c r="L50" s="38"/>
@@ -5710,17 +5738,17 @@
       <c r="D51" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="59" t="s">
+      <c r="E51" s="47" t="s">
         <v>305</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
       <c r="H51" s="37"/>
       <c r="I51" s="42"/>
-      <c r="J51" s="60" t="s">
+      <c r="J51" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="K51" s="60" t="s">
+      <c r="K51" s="48" t="s">
         <v>437</v>
       </c>
       <c r="L51" s="38"/>
@@ -5751,17 +5779,17 @@
       <c r="D52" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="59" t="s">
+      <c r="E52" s="47" t="s">
         <v>306</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
       <c r="H52" s="37"/>
       <c r="I52" s="42"/>
-      <c r="J52" s="60" t="s">
+      <c r="J52" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="K52" s="60" t="s">
+      <c r="K52" s="48" t="s">
         <v>440</v>
       </c>
       <c r="L52" s="38"/>
@@ -5792,17 +5820,17 @@
       <c r="D53" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="E53" s="59" t="s">
+      <c r="E53" s="47" t="s">
         <v>307</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
       <c r="H53" s="37"/>
       <c r="I53" s="42"/>
-      <c r="J53" s="60" t="s">
+      <c r="J53" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="K53" s="60" t="s">
+      <c r="K53" s="48" t="s">
         <v>440</v>
       </c>
       <c r="L53" s="38"/>
@@ -10162,19 +10190,19 @@
       <c r="D171" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="E171" s="59" t="s">
+      <c r="E171" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="F171" s="61">
+      <c r="F171" s="49">
         <v>45771.376643518517</v>
       </c>
-      <c r="G171" s="61">
+      <c r="G171" s="49">
         <v>45771.376643518517</v>
       </c>
-      <c r="H171" s="62" t="s">
+      <c r="H171" s="50" t="s">
         <v>445</v>
       </c>
-      <c r="I171" s="62" t="s">
+      <c r="I171" s="50" t="s">
         <v>446</v>
       </c>
       <c r="J171" s="38" t="s">
@@ -10209,19 +10237,19 @@
       <c r="D172" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="E172" s="59" t="s">
+      <c r="E172" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="F172" s="61">
+      <c r="F172" s="49">
         <v>45771.376643518517</v>
       </c>
-      <c r="G172" s="61">
+      <c r="G172" s="49">
         <v>45771.376643518517</v>
       </c>
-      <c r="H172" s="64" t="s">
+      <c r="H172" s="51" t="s">
         <v>445</v>
       </c>
-      <c r="I172" s="62" t="s">
+      <c r="I172" s="50" t="s">
         <v>446</v>
       </c>
       <c r="J172" s="38" t="s">
@@ -10774,17 +10802,17 @@
       <c r="D187" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="E187" s="59" t="s">
+      <c r="E187" s="47" t="s">
         <v>410</v>
       </c>
       <c r="F187" s="35"/>
       <c r="G187" s="35"/>
       <c r="H187" s="35"/>
       <c r="I187" s="35"/>
-      <c r="J187" s="60" t="s">
+      <c r="J187" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="K187" s="60" t="s">
+      <c r="K187" s="48" t="s">
         <v>440</v>
       </c>
       <c r="L187" s="35"/>
@@ -17366,18 +17394,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17635,6 +17651,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
@@ -17644,23 +17672,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17677,4 +17688,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/S1#111#OLLYSOFTXX/OLLYSOFT/OLLYMED/1.0/accreditamento-checklist_V8.2.5.xlsx
+++ b/GATEWAY/S1#111#OLLYSOFTXX/OLLYSOFT/OLLYMED/1.0/accreditamento-checklist_V8.2.5.xlsx
@@ -1699,13 +1699,13 @@
     <t>subject_application_id:OllyMed</t>
   </si>
   <si>
-    <t>9daf2f6aaf50c884e7f42d533597f43f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.483f13841fa6a1d458bcb95ac726f3480c5e140be2cf0639da5b01165c047ec6.f80e65e670^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-24T09:02:00+02:00</t>
+    <t>323cc1d3acfac3bf84d9a8bc0696f834</t>
+  </si>
+  <si>
+    <t>2025-05-22T16:56:22+02:00</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.483f13841fa6a1d458bcb95ac726f3480c5e140be2cf0639da5b01165c047ec6.1394b2e9b1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2203,7 +2203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2341,9 +2341,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2366,6 +2363,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="18" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2394,9 +2394,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="18" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1"/>
@@ -3843,10 +3840,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G187" sqref="G187"/>
+      <selection pane="bottomRight" activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4822,26 +4819,26 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="59" customFormat="1" ht="97.5" customHeight="1" thickBot="1">
-      <c r="A28" s="52">
+    <row r="28" spans="1:23" s="58" customFormat="1" ht="97.5" customHeight="1" thickBot="1">
+      <c r="A28" s="51">
         <v>45</v>
       </c>
-      <c r="B28" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="53" t="s">
+      <c r="B28" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="56"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
       <c r="J28" s="48" t="s">
         <v>64</v>
       </c>
@@ -4869,10 +4866,10 @@
         <v>439</v>
       </c>
       <c r="T28" s="48"/>
-      <c r="U28" s="57" t="s">
+      <c r="U28" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="V28" s="58"/>
+      <c r="V28" s="57"/>
       <c r="W28" s="48" t="s">
         <v>44</v>
       </c>
@@ -10200,16 +10197,16 @@
         <v>379</v>
       </c>
       <c r="F171" s="49">
-        <v>45771.376643518517</v>
-      </c>
-      <c r="G171" s="74" t="s">
-        <v>447</v>
+        <v>45799.705555555556</v>
+      </c>
+      <c r="G171" s="59" t="s">
+        <v>446</v>
       </c>
       <c r="H171" s="50" t="s">
         <v>445</v>
       </c>
       <c r="I171" s="50" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J171" s="38" t="s">
         <v>64</v>
@@ -10247,16 +10244,16 @@
         <v>380</v>
       </c>
       <c r="F172" s="49">
-        <v>45771.376643518517</v>
-      </c>
-      <c r="G172" s="74" t="s">
+        <v>45799.705555555556</v>
+      </c>
+      <c r="G172" s="59" t="s">
+        <v>446</v>
+      </c>
+      <c r="H172" s="50" t="s">
+        <v>445</v>
+      </c>
+      <c r="I172" s="50" t="s">
         <v>447</v>
-      </c>
-      <c r="H172" s="51" t="s">
-        <v>445</v>
-      </c>
-      <c r="I172" s="50" t="s">
-        <v>446</v>
       </c>
       <c r="J172" s="38" t="s">
         <v>64</v>
@@ -17400,18 +17397,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17669,6 +17654,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
@@ -17678,23 +17675,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17711,4 +17691,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/S1#111#OLLYSOFTXX/OLLYSOFT/OLLYMED/1.0/accreditamento-checklist_V8.2.5.xlsx
+++ b/GATEWAY/S1#111#OLLYSOFTXX/OLLYSOFT/OLLYMED/1.0/accreditamento-checklist_V8.2.5.xlsx
@@ -1699,13 +1699,13 @@
     <t>subject_application_id:OllyMed</t>
   </si>
   <si>
-    <t>323cc1d3acfac3bf84d9a8bc0696f834</t>
-  </si>
-  <si>
-    <t>2025-05-22T16:56:22+02:00</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.483f13841fa6a1d458bcb95ac726f3480c5e140be2cf0639da5b01165c047ec6.1394b2e9b1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.483f13841fa6a1d458bcb95ac726f3480c5e140be2cf0639da5b01165c047ec6.e583cba224^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>1f20284b3a719025cf44b03278085a7b</t>
+  </si>
+  <si>
+    <t>2025-05-27T09:25:10+02:00</t>
   </si>
 </sst>
 </file>
@@ -3840,10 +3840,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A172" sqref="A172"/>
+      <selection pane="bottomRight" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10197,16 +10197,16 @@
         <v>379</v>
       </c>
       <c r="F171" s="49">
-        <v>45799.705555555556</v>
+        <v>45802.392476851855</v>
       </c>
       <c r="G171" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="H171" s="50" t="s">
         <v>446</v>
       </c>
-      <c r="H171" s="50" t="s">
+      <c r="I171" s="50" t="s">
         <v>445</v>
-      </c>
-      <c r="I171" s="50" t="s">
-        <v>447</v>
       </c>
       <c r="J171" s="38" t="s">
         <v>64</v>
@@ -10244,16 +10244,16 @@
         <v>380</v>
       </c>
       <c r="F172" s="49">
-        <v>45799.705555555556</v>
+        <v>45802.392476851855</v>
       </c>
       <c r="G172" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="H172" s="50" t="s">
         <v>446</v>
       </c>
-      <c r="H172" s="50" t="s">
+      <c r="I172" s="50" t="s">
         <v>445</v>
-      </c>
-      <c r="I172" s="50" t="s">
-        <v>447</v>
       </c>
       <c r="J172" s="38" t="s">
         <v>64</v>

--- a/GATEWAY/S1#111#OLLYSOFTXX/OLLYSOFT/OLLYMED/1.0/accreditamento-checklist_V8.2.5.xlsx
+++ b/GATEWAY/S1#111#OLLYSOFTXX/OLLYSOFT/OLLYMED/1.0/accreditamento-checklist_V8.2.5.xlsx
@@ -1699,13 +1699,13 @@
     <t>subject_application_id:OllyMed</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.483f13841fa6a1d458bcb95ac726f3480c5e140be2cf0639da5b01165c047ec6.e583cba224^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>1f20284b3a719025cf44b03278085a7b</t>
-  </si>
-  <si>
-    <t>2025-05-27T09:25:10+02:00</t>
+    <t>2f23e5845f1722a844a25de287480325</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.483f13841fa6a1d458bcb95ac726f3480c5e140be2cf0639da5b01165c047ec6.b196089019^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-28T12:36:38+02:00</t>
   </si>
 </sst>
 </file>
@@ -3840,10 +3840,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G53" sqref="G53"/>
+      <selection pane="bottomRight" activeCell="I172" sqref="I172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10197,16 +10197,16 @@
         <v>379</v>
       </c>
       <c r="F171" s="49">
-        <v>45802.392476851855</v>
+        <v>45805.525439814817</v>
       </c>
       <c r="G171" s="59" t="s">
         <v>447</v>
       </c>
       <c r="H171" s="50" t="s">
+        <v>445</v>
+      </c>
+      <c r="I171" s="50" t="s">
         <v>446</v>
-      </c>
-      <c r="I171" s="50" t="s">
-        <v>445</v>
       </c>
       <c r="J171" s="38" t="s">
         <v>64</v>
@@ -10244,16 +10244,16 @@
         <v>380</v>
       </c>
       <c r="F172" s="49">
-        <v>45802.392476851855</v>
+        <v>45805.525439814817</v>
       </c>
       <c r="G172" s="59" t="s">
         <v>447</v>
       </c>
       <c r="H172" s="50" t="s">
+        <v>445</v>
+      </c>
+      <c r="I172" s="50" t="s">
         <v>446</v>
-      </c>
-      <c r="I172" s="50" t="s">
-        <v>445</v>
       </c>
       <c r="J172" s="38" t="s">
         <v>64</v>
@@ -17397,6 +17397,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17654,18 +17666,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
@@ -17675,6 +17675,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17691,21 +17708,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/S1#111#OLLYSOFTXX/OLLYSOFT/OLLYMED/1.0/accreditamento-checklist_V8.2.5.xlsx
+++ b/GATEWAY/S1#111#OLLYSOFTXX/OLLYSOFT/OLLYMED/1.0/accreditamento-checklist_V8.2.5.xlsx
@@ -1699,13 +1699,13 @@
     <t>subject_application_id:OllyMed</t>
   </si>
   <si>
-    <t>2f23e5845f1722a844a25de287480325</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.483f13841fa6a1d458bcb95ac726f3480c5e140be2cf0639da5b01165c047ec6.b196089019^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-28T12:36:38+02:00</t>
+    <t>f9eeb638d69a77d4d5bf73f5add8c21b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.483f13841fa6a1d458bcb95ac726f3480c5e140be2cf0639da5b01165c047ec6.691d163595^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-06-03T14:52:54T+02:00</t>
   </si>
 </sst>
 </file>
@@ -3840,10 +3840,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I172" sqref="I172"/>
+      <selection pane="bottomRight" activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10197,7 +10197,7 @@
         <v>379</v>
       </c>
       <c r="F171" s="49">
-        <v>45805.525439814817</v>
+        <v>45811.620069444441</v>
       </c>
       <c r="G171" s="59" t="s">
         <v>447</v>
@@ -10244,7 +10244,7 @@
         <v>380</v>
       </c>
       <c r="F172" s="49">
-        <v>45805.525439814817</v>
+        <v>45811.620069444441</v>
       </c>
       <c r="G172" s="59" t="s">
         <v>447</v>
@@ -17397,18 +17397,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17666,6 +17654,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
@@ -17675,23 +17675,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17708,4 +17691,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>